--- a/Status_of_Not_found.xlsx
+++ b/Status_of_Not_found.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="473">
   <si>
     <t>rxcui</t>
   </si>
@@ -76,15 +76,6 @@
     <t>1145972</t>
   </si>
   <si>
-    <t>1154667</t>
-  </si>
-  <si>
-    <t>1154668</t>
-  </si>
-  <si>
-    <t>1154669</t>
-  </si>
-  <si>
     <t>1155161</t>
   </si>
   <si>
@@ -106,12 +97,6 @@
     <t>1158554</t>
   </si>
   <si>
-    <t>1161354</t>
-  </si>
-  <si>
-    <t>1161355</t>
-  </si>
-  <si>
     <t>1162251</t>
   </si>
   <si>
@@ -238,18 +223,6 @@
     <t>1179319</t>
   </si>
   <si>
-    <t>1179650</t>
-  </si>
-  <si>
-    <t>1179651</t>
-  </si>
-  <si>
-    <t>1179656</t>
-  </si>
-  <si>
-    <t>1179657</t>
-  </si>
-  <si>
     <t>1180101</t>
   </si>
   <si>
@@ -301,18 +274,6 @@
     <t>1186475</t>
   </si>
   <si>
-    <t>1190568</t>
-  </si>
-  <si>
-    <t>1190572</t>
-  </si>
-  <si>
-    <t>1190641</t>
-  </si>
-  <si>
-    <t>1190646</t>
-  </si>
-  <si>
     <t>1244754</t>
   </si>
   <si>
@@ -376,9 +337,6 @@
     <t>1995536</t>
   </si>
   <si>
-    <t>200240</t>
-  </si>
-  <si>
     <t>2182355</t>
   </si>
   <si>
@@ -670,9 +628,6 @@
     <t>1811764</t>
   </si>
   <si>
-    <t>215451</t>
-  </si>
-  <si>
     <t>221074</t>
   </si>
   <si>
@@ -682,21 +637,9 @@
     <t>314517</t>
   </si>
   <si>
-    <t>32926</t>
-  </si>
-  <si>
-    <t>402519</t>
-  </si>
-  <si>
     <t>544581</t>
   </si>
   <si>
-    <t>6377</t>
-  </si>
-  <si>
-    <t>690713</t>
-  </si>
-  <si>
     <t>71225</t>
   </si>
   <si>
@@ -739,15 +682,6 @@
     <t>codeine phosphate 1.6 MG/ML / pseudoephedrine hydrochloride 6 MG/ML Oral Solution [Codar D]</t>
   </si>
   <si>
-    <t>atropine / diphenoxylate Oral Liquid Product</t>
-  </si>
-  <si>
-    <t>atropine / diphenoxylate Oral Product</t>
-  </si>
-  <si>
-    <t>atropine / diphenoxylate Pill</t>
-  </si>
-  <si>
     <t>codeine / pyrilamine Oral Liquid Product</t>
   </si>
   <si>
@@ -769,12 +703,6 @@
     <t>guaifenesin / hydrocodone / phenylephrine Oral Product</t>
   </si>
   <si>
-    <t>paregoric Oral Liquid Product</t>
-  </si>
-  <si>
-    <t>paregoric Oral Product</t>
-  </si>
-  <si>
     <t>oxymorphone Injectable Product</t>
   </si>
   <si>
@@ -901,18 +829,6 @@
     <t>Nariz HC Oral Product</t>
   </si>
   <si>
-    <t>Lomotil Oral Product</t>
-  </si>
-  <si>
-    <t>Lomotil Pill</t>
-  </si>
-  <si>
-    <t>Lonox Oral Product</t>
-  </si>
-  <si>
-    <t>Lonox Pill</t>
-  </si>
-  <si>
     <t>Relasin HC Oral Liquid Product</t>
   </si>
   <si>
@@ -964,18 +880,6 @@
     <t>Zutripro Oral Product</t>
   </si>
   <si>
-    <t>atropine sulfate 0.005 MG/ML / diphenoxylate hydrochloride 0.5 MG/ML Oral Solution</t>
-  </si>
-  <si>
-    <t>atropine sulfate 0.025 MG / diphenoxylate hydrochloride 2.5 MG Oral Tablet</t>
-  </si>
-  <si>
-    <t>atropine sulfate 0.025 MG / diphenoxylate hydrochloride 2.5 MG Oral Tablet [Lomotil]</t>
-  </si>
-  <si>
-    <t>atropine sulfate 0.025 MG / diphenoxylate hydrochloride 2.5 MG Oral Tablet [Lonox]</t>
-  </si>
-  <si>
     <t>guaifenesin 20 MG/ML / hydrocodone bitartrate 0.5 MG/ML / pseudoephedrine hydrochloride 6 MG/ML Oral Solution</t>
   </si>
   <si>
@@ -1039,9 +943,6 @@
     <t>acetaminophen 325 MG / caffeine 30 MG / dihydrocodeine bitartrate 16 MG Oral Tablet [Panlor Reformulated Jan 2018]</t>
   </si>
   <si>
-    <t>paregoric 0.4 MG/ML Oral Solution</t>
-  </si>
-  <si>
     <t>chlorpheniramine maleate 0.5 MG/ML / hydrocodone bitartrate 0.65 MG/ML / phenylephrine hydrochloride 1.6 MG/ML Oral Solution [Relasin HC]</t>
   </si>
   <si>
@@ -1333,9 +1234,6 @@
     <t>Atropa belladonna flowering top extract</t>
   </si>
   <si>
-    <t>aspirin / oxycodone hydrochloride / oxycodone terephthalate</t>
-  </si>
-  <si>
     <t>chlorpheniramine polistirex</t>
   </si>
   <si>
@@ -1345,21 +1243,9 @@
     <t>belladonna leaf extract</t>
   </si>
   <si>
-    <t>paregoric</t>
-  </si>
-  <si>
-    <t>levopropoxyphene napsylate</t>
-  </si>
-  <si>
     <t>Apokyn</t>
   </si>
   <si>
-    <t>levopropoxyphene</t>
-  </si>
-  <si>
-    <t>kaolin / paregoric / pectin</t>
-  </si>
-  <si>
     <t>apomorphine hydrochloride</t>
   </si>
   <si>
@@ -1435,9 +1321,6 @@
     <t>102011</t>
   </si>
   <si>
-    <t>112011</t>
-  </si>
-  <si>
     <t>032012</t>
   </si>
   <si>
@@ -1468,33 +1351,33 @@
     <t>022018</t>
   </si>
   <si>
+    <t>092019</t>
+  </si>
+  <si>
+    <t>062005</t>
+  </si>
+  <si>
+    <t>082009</t>
+  </si>
+  <si>
+    <t>092009</t>
+  </si>
+  <si>
+    <t>022010</t>
+  </si>
+  <si>
+    <t>042010</t>
+  </si>
+  <si>
+    <t>062010</t>
+  </si>
+  <si>
+    <t>072010</t>
+  </si>
+  <si>
     <t>042005</t>
   </si>
   <si>
-    <t>092019</t>
-  </si>
-  <si>
-    <t>062005</t>
-  </si>
-  <si>
-    <t>082009</t>
-  </si>
-  <si>
-    <t>092009</t>
-  </si>
-  <si>
-    <t>022010</t>
-  </si>
-  <si>
-    <t>042010</t>
-  </si>
-  <si>
-    <t>062010</t>
-  </si>
-  <si>
-    <t>072010</t>
-  </si>
-  <si>
     <t>012012</t>
   </si>
   <si>
@@ -1508,9 +1391,6 @@
   </si>
   <si>
     <t>092005</t>
-  </si>
-  <si>
-    <t>042007</t>
   </si>
   <si>
     <t>NO</t>
@@ -1910,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K222"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1956,28 +1836,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E2" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="H2" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I2" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="J2" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1985,28 +1865,28 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F3" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="H3" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I3" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="J3" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2014,28 +1894,28 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F4" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="H4" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I4" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="J4" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2043,28 +1923,28 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="H5" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I5" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="J5" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2072,28 +1952,28 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="H6" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I6" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="J6" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2101,28 +1981,28 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F7" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="H7" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I7" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="J7" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2130,28 +2010,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="H8" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I8" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="J8" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2159,28 +2039,28 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F9" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="H9" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I9" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="J9" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2188,28 +2068,28 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E10" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F10" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="H10" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I10" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="J10" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2217,25 +2097,28 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E11" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F11" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H11" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I11" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2243,25 +2126,28 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D12" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E12" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F12" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I12" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J12" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2269,25 +2155,28 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E13" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F13" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H13" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I13" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J13" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2295,28 +2184,28 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D14" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E14" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F14" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H14" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I14" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J14" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2324,28 +2213,28 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F15" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H15" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I15" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J15" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2353,28 +2242,28 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E16" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F16" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H16" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I16" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J16" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2382,28 +2271,28 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D17" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E17" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F17" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H17" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I17" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J17" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2411,28 +2300,28 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" t="s">
+        <v>429</v>
+      </c>
+      <c r="F18" t="s">
+        <v>434</v>
+      </c>
+      <c r="H18" t="s">
+        <v>459</v>
+      </c>
+      <c r="I18" t="s">
+        <v>434</v>
+      </c>
+      <c r="J18" t="s">
         <v>465</v>
-      </c>
-      <c r="E18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F18" t="s">
-        <v>472</v>
-      </c>
-      <c r="H18" t="s">
-        <v>499</v>
-      </c>
-      <c r="I18" t="s">
-        <v>472</v>
-      </c>
-      <c r="J18" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2440,28 +2329,25 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E19" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F19" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H19" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I19" t="s">
-        <v>472</v>
-      </c>
-      <c r="J19" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2469,28 +2355,25 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D20" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F20" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H20" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I20" t="s">
-        <v>472</v>
-      </c>
-      <c r="J20" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2498,25 +2381,28 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" t="s">
+        <v>434</v>
+      </c>
+      <c r="H21" t="s">
+        <v>459</v>
+      </c>
+      <c r="I21" t="s">
+        <v>434</v>
+      </c>
+      <c r="J21" t="s">
         <v>466</v>
-      </c>
-      <c r="E21" t="s">
-        <v>467</v>
-      </c>
-      <c r="F21" t="s">
-        <v>472</v>
-      </c>
-      <c r="H21" t="s">
-        <v>500</v>
-      </c>
-      <c r="I21" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2524,25 +2410,28 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" t="s">
+        <v>459</v>
+      </c>
+      <c r="I22" t="s">
+        <v>434</v>
+      </c>
+      <c r="J22" t="s">
         <v>466</v>
-      </c>
-      <c r="E22" t="s">
-        <v>467</v>
-      </c>
-      <c r="F22" t="s">
-        <v>472</v>
-      </c>
-      <c r="H22" t="s">
-        <v>500</v>
-      </c>
-      <c r="I22" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2550,28 +2439,28 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="D23" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E23" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F23" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H23" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I23" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J23" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2579,25 +2468,28 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="D24" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E24" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F24" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H24" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I24" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J24" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2605,25 +2497,25 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="D25" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F25" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H25" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I25" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2631,28 +2523,25 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D26" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E26" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F26" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H26" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I26" t="s">
-        <v>472</v>
-      </c>
-      <c r="J26" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2660,28 +2549,28 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D27" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E27" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H27" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J27" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2689,28 +2578,28 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E28" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F28" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H28" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I28" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J28" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2718,28 +2607,28 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E29" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F29" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H29" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I29" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J29" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2747,25 +2636,28 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D30" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E30" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F30" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H30" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I30" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J30" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2773,25 +2665,28 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D31" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E31" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F31" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H31" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I31" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J31" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2799,28 +2694,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D32" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E32" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F32" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H32" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I32" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J32" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2828,28 +2723,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D33" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E33" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F33" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H33" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I33" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J33" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2857,28 +2752,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D34" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E34" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F34" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H34" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I34" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J34" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2886,28 +2781,28 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D35" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E35" t="s">
+        <v>429</v>
+      </c>
+      <c r="F35" t="s">
+        <v>434</v>
+      </c>
+      <c r="H35" t="s">
+        <v>459</v>
+      </c>
+      <c r="I35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J35" t="s">
         <v>467</v>
-      </c>
-      <c r="F35" t="s">
-        <v>472</v>
-      </c>
-      <c r="H35" t="s">
-        <v>499</v>
-      </c>
-      <c r="I35" t="s">
-        <v>472</v>
-      </c>
-      <c r="J35" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2915,28 +2810,28 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D36" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E36" t="s">
+        <v>429</v>
+      </c>
+      <c r="F36" t="s">
+        <v>434</v>
+      </c>
+      <c r="H36" t="s">
+        <v>459</v>
+      </c>
+      <c r="I36" t="s">
+        <v>434</v>
+      </c>
+      <c r="J36" t="s">
         <v>467</v>
-      </c>
-      <c r="F36" t="s">
-        <v>472</v>
-      </c>
-      <c r="H36" t="s">
-        <v>499</v>
-      </c>
-      <c r="I36" t="s">
-        <v>472</v>
-      </c>
-      <c r="J36" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2944,28 +2839,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C37" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D37" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E37" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F37" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H37" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I37" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J37" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2973,28 +2868,28 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C38" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D38" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E38" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F38" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H38" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I38" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J38" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3002,28 +2897,28 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D39" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E39" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F39" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H39" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I39" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J39" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3031,28 +2926,28 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D40" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E40" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F40" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H40" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I40" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J40" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3060,28 +2955,28 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D41" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E41" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F41" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H41" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I41" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J41" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3089,28 +2984,28 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C42" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D42" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E42" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F42" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H42" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I42" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J42" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3118,28 +3013,28 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E43" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F43" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H43" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I43" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J43" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3147,28 +3042,28 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D44" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E44" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F44" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H44" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I44" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J44" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3176,28 +3071,28 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D45" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E45" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F45" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H45" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I45" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J45" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3205,28 +3100,28 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C46" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D46" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E46" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F46" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H46" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I46" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J46" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3234,28 +3129,28 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D47" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E47" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F47" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H47" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I47" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J47" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3263,28 +3158,28 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C48" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D48" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E48" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F48" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H48" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I48" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J48" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3292,28 +3187,28 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C49" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D49" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E49" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F49" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H49" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I49" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J49" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3321,28 +3216,28 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D50" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E50" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F50" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H50" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I50" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J50" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3350,28 +3245,28 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D51" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E51" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F51" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H51" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I51" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3379,28 +3274,28 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D52" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E52" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H52" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I52" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3408,28 +3303,25 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D53" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E53" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F53" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H53" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I53" t="s">
-        <v>472</v>
-      </c>
-      <c r="J53" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3437,28 +3329,28 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D54" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E54" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H54" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I54" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J54" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3466,28 +3358,28 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D55" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E55" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F55" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H55" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I55" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J55" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3495,28 +3387,28 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D56" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E56" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H56" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J56" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3524,28 +3416,28 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D57" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E57" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F57" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H57" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I57" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J57" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3553,25 +3445,28 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C58" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D58" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E58" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F58" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H58" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J58" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3579,28 +3474,28 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C59" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D59" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E59" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F59" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H59" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J59" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3608,28 +3503,28 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C60" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D60" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E60" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F60" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H60" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J60" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3637,28 +3532,28 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D61" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E61" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F61" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H61" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J61" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3666,28 +3561,28 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D62" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E62" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F62" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H62" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I62" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J62" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3695,28 +3590,28 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C63" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D63" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E63" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F63" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H63" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I63" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J63" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3724,28 +3619,28 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C64" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D64" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E64" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F64" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H64" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J64" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3753,25 +3648,28 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D65" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E65" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F65" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H65" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I65" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3779,25 +3677,28 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C66" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D66" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E66" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H66" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I66" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J66" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3805,25 +3706,28 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C67" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E67" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F67" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H67" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I67" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J67" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3831,25 +3735,28 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D68" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E68" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F68" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H68" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I68" t="s">
-        <v>472</v>
+        <v>434</v>
+      </c>
+      <c r="J68" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3857,28 +3764,28 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D69" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E69" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F69" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H69" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I69" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J69" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3886,28 +3793,28 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C70" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D70" t="s">
+        <v>427</v>
+      </c>
+      <c r="E70" t="s">
+        <v>429</v>
+      </c>
+      <c r="F70" t="s">
+        <v>434</v>
+      </c>
+      <c r="H70" t="s">
+        <v>459</v>
+      </c>
+      <c r="I70" t="s">
+        <v>434</v>
+      </c>
+      <c r="J70" t="s">
         <v>465</v>
-      </c>
-      <c r="E70" t="s">
-        <v>467</v>
-      </c>
-      <c r="F70" t="s">
-        <v>472</v>
-      </c>
-      <c r="H70" t="s">
-        <v>499</v>
-      </c>
-      <c r="I70" t="s">
-        <v>472</v>
-      </c>
-      <c r="J70" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3915,28 +3822,28 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D71" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E71" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F71" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H71" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I71" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J71" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3944,28 +3851,28 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C72" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D72" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E72" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F72" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H72" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I72" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J72" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3973,28 +3880,28 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C73" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D73" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E73" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F73" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H73" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I73" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J73" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4002,28 +3909,28 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D74" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E74" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F74" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H74" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I74" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J74" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4031,28 +3938,28 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D75" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E75" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F75" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H75" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I75" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J75" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4060,28 +3967,28 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D76" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E76" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F76" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H76" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I76" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="J76" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4089,28 +3996,28 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C77" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D77" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E77" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F77" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="H77" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I77" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="J77" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4118,28 +4025,25 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E78" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F78" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="H78" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I78" t="s">
-        <v>472</v>
-      </c>
-      <c r="J78" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4147,28 +4051,25 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C79" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="D79" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E79" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F79" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="H79" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I79" t="s">
-        <v>472</v>
-      </c>
-      <c r="J79" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4176,28 +4077,28 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C80" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="D80" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E80" t="s">
+        <v>429</v>
+      </c>
+      <c r="F80" t="s">
+        <v>437</v>
+      </c>
+      <c r="H80" t="s">
+        <v>459</v>
+      </c>
+      <c r="I80" t="s">
+        <v>437</v>
+      </c>
+      <c r="J80" t="s">
         <v>467</v>
-      </c>
-      <c r="F80" t="s">
-        <v>472</v>
-      </c>
-      <c r="H80" t="s">
-        <v>499</v>
-      </c>
-      <c r="I80" t="s">
-        <v>472</v>
-      </c>
-      <c r="J80" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4205,28 +4106,28 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D81" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F81" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="H81" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I81" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="J81" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4234,28 +4135,28 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C82" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="D82" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E82" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F82" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="H82" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I82" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="J82" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4263,28 +4164,28 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C83" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D83" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E83" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F83" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="H83" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I83" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="J83" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4292,28 +4193,28 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D84" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E84" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F84" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="H84" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I84" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="J84" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4321,28 +4222,28 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D85" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E85" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F85" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="H85" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I85" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="J85" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4350,25 +4251,28 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C86" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="D86" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E86" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F86" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="H86" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I86" t="s">
-        <v>473</v>
+        <v>441</v>
+      </c>
+      <c r="J86" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4376,25 +4280,28 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C87" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="D87" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E87" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F87" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="H87" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I87" t="s">
-        <v>473</v>
+        <v>441</v>
+      </c>
+      <c r="J87" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4402,25 +4309,28 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C88" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D88" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E88" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F88" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="H88" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I88" t="s">
-        <v>473</v>
+        <v>441</v>
+      </c>
+      <c r="J88" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4428,25 +4338,28 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="D89" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E89" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F89" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="H89" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I89" t="s">
-        <v>473</v>
+        <v>441</v>
+      </c>
+      <c r="J89" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4454,28 +4367,28 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C90" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D90" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E90" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F90" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="H90" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I90" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="J90" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4483,25 +4396,28 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C91" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D91" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E91" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F91" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H91" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I91" t="s">
-        <v>475</v>
+        <v>442</v>
+      </c>
+      <c r="J91" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4509,25 +4425,28 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C92" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="D92" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E92" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F92" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H92" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I92" t="s">
-        <v>475</v>
+        <v>443</v>
+      </c>
+      <c r="J92" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4535,28 +4454,28 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C93" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="D93" t="s">
+        <v>427</v>
+      </c>
+      <c r="E93" t="s">
+        <v>429</v>
+      </c>
+      <c r="F93" t="s">
+        <v>443</v>
+      </c>
+      <c r="H93" t="s">
+        <v>459</v>
+      </c>
+      <c r="I93" t="s">
+        <v>443</v>
+      </c>
+      <c r="J93" t="s">
         <v>465</v>
-      </c>
-      <c r="E93" t="s">
-        <v>467</v>
-      </c>
-      <c r="F93" t="s">
-        <v>476</v>
-      </c>
-      <c r="H93" t="s">
-        <v>499</v>
-      </c>
-      <c r="I93" t="s">
-        <v>476</v>
-      </c>
-      <c r="J93" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4564,28 +4483,28 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C94" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="D94" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E94" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F94" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="H94" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I94" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="J94" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4593,28 +4512,28 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C95" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="D95" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E95" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F95" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="H95" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I95" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="J95" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4622,28 +4541,28 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="D96" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E96" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F96" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="H96" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I96" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="J96" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4651,28 +4570,28 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D97" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E97" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F97" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="H97" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I97" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="J97" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4680,28 +4599,28 @@
         <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D98" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E98" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F98" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="H98" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I98" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="J98" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4709,28 +4628,28 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C99" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="D99" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E99" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F99" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="H99" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I99" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="J99" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4738,28 +4657,28 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="D100" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E100" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F100" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="H100" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I100" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="J100" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4767,28 +4686,28 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="D101" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E101" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F101" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="H101" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I101" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="J101" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4796,28 +4715,28 @@
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C102" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D102" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E102" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F102" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="H102" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I102" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="J102" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4825,28 +4744,28 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C103" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D103" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E103" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F103" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="H103" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I103" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="J103" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4854,28 +4773,28 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C104" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D104" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E104" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F104" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="H104" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I104" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="J104" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4883,28 +4802,28 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C105" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="D105" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E105" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F105" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="H105" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I105" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="J105" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4912,28 +4831,28 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C106" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E106" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F106" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="H106" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I106" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="J106" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4941,28 +4860,28 @@
         <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="D107" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E107" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F107" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="H107" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I107" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="J107" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4970,28 +4889,28 @@
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C108" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E108" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F108" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="H108" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I108" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="J108" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4999,28 +4918,28 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C109" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D109" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E109" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F109" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="H109" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I109" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="J109" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5028,28 +4947,28 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C110" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D110" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E110" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F110" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="H110" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I110" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="J110" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -5057,25 +4976,28 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C111" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D111" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E111" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F111" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="H111" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I111" t="s">
-        <v>501</v>
+        <v>448</v>
+      </c>
+      <c r="J111" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5083,28 +5005,28 @@
         <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C112" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D112" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E112" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F112" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="H112" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I112" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="J112" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5112,28 +5034,28 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C113" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="D113" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E113" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F113" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="H113" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I113" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="J113" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5141,28 +5063,28 @@
         <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C114" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E114" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F114" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="H114" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I114" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="J114" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5170,28 +5092,28 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="C115" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D115" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E115" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F115" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="H115" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I115" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="J115" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5199,28 +5121,28 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C116" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E116" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F116" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="H116" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I116" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="J116" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5228,28 +5150,28 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C117" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D117" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E117" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F117" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="H117" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I117" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="J117" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5257,28 +5179,28 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C118" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="D118" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E118" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F118" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H118" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I118" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J118" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5286,28 +5208,28 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D119" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E119" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F119" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H119" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I119" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J119" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5315,28 +5237,28 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C120" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E120" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F120" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H120" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I120" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J120" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5344,28 +5266,28 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C121" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D121" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E121" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F121" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H121" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I121" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J121" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5373,28 +5295,28 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C122" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E122" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F122" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H122" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I122" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J122" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5402,28 +5324,28 @@
         <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C123" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D123" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E123" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F123" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H123" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I123" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J123" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5431,28 +5353,28 @@
         <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C124" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E124" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F124" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H124" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I124" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J124" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5460,28 +5382,28 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C125" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D125" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E125" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F125" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H125" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I125" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J125" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5489,28 +5411,28 @@
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C126" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E126" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F126" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H126" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I126" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J126" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5518,28 +5440,28 @@
         <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="C127" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D127" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E127" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F127" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="H127" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I127" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="J127" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5547,28 +5469,28 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C128" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E128" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F128" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="H128" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I128" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="J128" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5576,28 +5498,28 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C129" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D129" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E129" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F129" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="H129" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I129" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="J129" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5605,28 +5527,28 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C130" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="D130" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E130" t="s">
+        <v>429</v>
+      </c>
+      <c r="F130" t="s">
+        <v>450</v>
+      </c>
+      <c r="H130" t="s">
+        <v>459</v>
+      </c>
+      <c r="I130" t="s">
+        <v>450</v>
+      </c>
+      <c r="J130" t="s">
         <v>467</v>
-      </c>
-      <c r="F130" t="s">
-        <v>488</v>
-      </c>
-      <c r="H130" t="s">
-        <v>499</v>
-      </c>
-      <c r="I130" t="s">
-        <v>488</v>
-      </c>
-      <c r="J130" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5634,28 +5556,28 @@
         <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C131" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D131" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E131" t="s">
+        <v>429</v>
+      </c>
+      <c r="F131" t="s">
+        <v>450</v>
+      </c>
+      <c r="H131" t="s">
+        <v>459</v>
+      </c>
+      <c r="I131" t="s">
+        <v>450</v>
+      </c>
+      <c r="J131" t="s">
         <v>467</v>
-      </c>
-      <c r="F131" t="s">
-        <v>488</v>
-      </c>
-      <c r="H131" t="s">
-        <v>499</v>
-      </c>
-      <c r="I131" t="s">
-        <v>488</v>
-      </c>
-      <c r="J131" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5663,28 +5585,28 @@
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C132" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D132" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E132" t="s">
+        <v>429</v>
+      </c>
+      <c r="F132" t="s">
+        <v>450</v>
+      </c>
+      <c r="H132" t="s">
+        <v>459</v>
+      </c>
+      <c r="I132" t="s">
+        <v>450</v>
+      </c>
+      <c r="J132" t="s">
         <v>467</v>
-      </c>
-      <c r="F132" t="s">
-        <v>488</v>
-      </c>
-      <c r="H132" t="s">
-        <v>499</v>
-      </c>
-      <c r="I132" t="s">
-        <v>488</v>
-      </c>
-      <c r="J132" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5692,28 +5614,28 @@
         <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D133" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E133" t="s">
+        <v>429</v>
+      </c>
+      <c r="F133" t="s">
+        <v>450</v>
+      </c>
+      <c r="H133" t="s">
+        <v>459</v>
+      </c>
+      <c r="I133" t="s">
+        <v>450</v>
+      </c>
+      <c r="J133" t="s">
         <v>467</v>
-      </c>
-      <c r="F133" t="s">
-        <v>488</v>
-      </c>
-      <c r="H133" t="s">
-        <v>499</v>
-      </c>
-      <c r="I133" t="s">
-        <v>488</v>
-      </c>
-      <c r="J133" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5721,28 +5643,28 @@
         <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C134" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="D134" t="s">
+        <v>427</v>
+      </c>
+      <c r="E134" t="s">
+        <v>429</v>
+      </c>
+      <c r="F134" t="s">
+        <v>451</v>
+      </c>
+      <c r="H134" t="s">
+        <v>459</v>
+      </c>
+      <c r="I134" t="s">
+        <v>451</v>
+      </c>
+      <c r="J134" t="s">
         <v>465</v>
-      </c>
-      <c r="E134" t="s">
-        <v>467</v>
-      </c>
-      <c r="F134" t="s">
-        <v>488</v>
-      </c>
-      <c r="H134" t="s">
-        <v>499</v>
-      </c>
-      <c r="I134" t="s">
-        <v>488</v>
-      </c>
-      <c r="J134" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5750,28 +5672,28 @@
         <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C135" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D135" t="s">
+        <v>427</v>
+      </c>
+      <c r="E135" t="s">
+        <v>429</v>
+      </c>
+      <c r="F135" t="s">
+        <v>451</v>
+      </c>
+      <c r="H135" t="s">
+        <v>459</v>
+      </c>
+      <c r="I135" t="s">
+        <v>451</v>
+      </c>
+      <c r="J135" t="s">
         <v>465</v>
-      </c>
-      <c r="E135" t="s">
-        <v>467</v>
-      </c>
-      <c r="F135" t="s">
-        <v>488</v>
-      </c>
-      <c r="H135" t="s">
-        <v>499</v>
-      </c>
-      <c r="I135" t="s">
-        <v>488</v>
-      </c>
-      <c r="J135" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5779,28 +5701,28 @@
         <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C136" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="D136" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E136" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F136" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="H136" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I136" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J136" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5808,28 +5730,28 @@
         <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C137" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="D137" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E137" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F137" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="H137" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I137" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J137" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5837,28 +5759,28 @@
         <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C138" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D138" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E138" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F138" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="H138" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I138" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J138" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5866,28 +5788,28 @@
         <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C139" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D139" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E139" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F139" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="H139" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I139" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J139" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5895,28 +5817,28 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C140" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D140" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E140" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F140" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="H140" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I140" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J140" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5924,28 +5846,28 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C141" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D141" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E141" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F141" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="H141" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I141" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J141" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5953,28 +5875,28 @@
         <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C142" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="D142" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E142" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F142" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="H142" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I142" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="J142" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5982,28 +5904,28 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="D143" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E143" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F143" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="H143" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I143" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="J143" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -6011,28 +5933,28 @@
         <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C144" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="D144" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E144" t="s">
+        <v>429</v>
+      </c>
+      <c r="F144" t="s">
+        <v>437</v>
+      </c>
+      <c r="H144" t="s">
+        <v>459</v>
+      </c>
+      <c r="I144" t="s">
+        <v>437</v>
+      </c>
+      <c r="J144" t="s">
         <v>467</v>
-      </c>
-      <c r="F144" t="s">
-        <v>490</v>
-      </c>
-      <c r="H144" t="s">
-        <v>499</v>
-      </c>
-      <c r="I144" t="s">
-        <v>490</v>
-      </c>
-      <c r="J144" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -6040,28 +5962,25 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C145" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="D145" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E145" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F145" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="H145" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I145" t="s">
-        <v>490</v>
-      </c>
-      <c r="J145" t="s">
-        <v>507</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -6069,28 +5988,28 @@
         <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C146" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="D146" t="s">
+        <v>427</v>
+      </c>
+      <c r="E146" t="s">
+        <v>429</v>
+      </c>
+      <c r="F146" t="s">
+        <v>441</v>
+      </c>
+      <c r="H146" t="s">
+        <v>459</v>
+      </c>
+      <c r="I146" t="s">
+        <v>441</v>
+      </c>
+      <c r="J146" t="s">
         <v>465</v>
-      </c>
-      <c r="E146" t="s">
-        <v>467</v>
-      </c>
-      <c r="F146" t="s">
-        <v>490</v>
-      </c>
-      <c r="H146" t="s">
-        <v>499</v>
-      </c>
-      <c r="I146" t="s">
-        <v>490</v>
-      </c>
-      <c r="J146" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6098,28 +6017,28 @@
         <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C147" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="D147" t="s">
+        <v>427</v>
+      </c>
+      <c r="E147" t="s">
+        <v>429</v>
+      </c>
+      <c r="F147" t="s">
+        <v>441</v>
+      </c>
+      <c r="H147" t="s">
+        <v>459</v>
+      </c>
+      <c r="I147" t="s">
+        <v>441</v>
+      </c>
+      <c r="J147" t="s">
         <v>465</v>
-      </c>
-      <c r="E147" t="s">
-        <v>467</v>
-      </c>
-      <c r="F147" t="s">
-        <v>490</v>
-      </c>
-      <c r="H147" t="s">
-        <v>499</v>
-      </c>
-      <c r="I147" t="s">
-        <v>490</v>
-      </c>
-      <c r="J147" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -6127,28 +6046,28 @@
         <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C148" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="D148" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E148" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F148" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="H148" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I148" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="J148" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -6156,28 +6075,25 @@
         <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C149" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149" t="s">
+        <v>428</v>
+      </c>
+      <c r="E149" t="s">
+        <v>429</v>
+      </c>
+      <c r="F149" t="s">
         <v>453</v>
       </c>
-      <c r="D149" t="s">
-        <v>465</v>
-      </c>
-      <c r="E149" t="s">
-        <v>467</v>
-      </c>
-      <c r="F149" t="s">
-        <v>491</v>
-      </c>
       <c r="H149" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I149" t="s">
-        <v>491</v>
-      </c>
-      <c r="J149" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -6185,28 +6101,28 @@
         <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C150" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="D150" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E150" t="s">
+        <v>429</v>
+      </c>
+      <c r="F150" t="s">
+        <v>450</v>
+      </c>
+      <c r="H150" t="s">
+        <v>459</v>
+      </c>
+      <c r="I150" t="s">
+        <v>450</v>
+      </c>
+      <c r="J150" t="s">
         <v>467</v>
-      </c>
-      <c r="F150" t="s">
-        <v>492</v>
-      </c>
-      <c r="H150" t="s">
-        <v>499</v>
-      </c>
-      <c r="I150" t="s">
-        <v>492</v>
-      </c>
-      <c r="J150" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -6214,28 +6130,28 @@
         <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C151" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="D151" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E151" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" t="s">
+        <v>450</v>
+      </c>
+      <c r="H151" t="s">
+        <v>459</v>
+      </c>
+      <c r="I151" t="s">
+        <v>450</v>
+      </c>
+      <c r="J151" t="s">
         <v>467</v>
-      </c>
-      <c r="F151" t="s">
-        <v>492</v>
-      </c>
-      <c r="H151" t="s">
-        <v>499</v>
-      </c>
-      <c r="I151" t="s">
-        <v>492</v>
-      </c>
-      <c r="J151" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -6243,28 +6159,28 @@
         <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C152" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="D152" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E152" t="s">
+        <v>429</v>
+      </c>
+      <c r="F152" t="s">
+        <v>450</v>
+      </c>
+      <c r="H152" t="s">
+        <v>459</v>
+      </c>
+      <c r="I152" t="s">
+        <v>450</v>
+      </c>
+      <c r="J152" t="s">
         <v>467</v>
-      </c>
-      <c r="F152" t="s">
-        <v>492</v>
-      </c>
-      <c r="H152" t="s">
-        <v>499</v>
-      </c>
-      <c r="I152" t="s">
-        <v>492</v>
-      </c>
-      <c r="J152" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -6272,28 +6188,28 @@
         <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C153" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="D153" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E153" t="s">
+        <v>429</v>
+      </c>
+      <c r="F153" t="s">
+        <v>450</v>
+      </c>
+      <c r="H153" t="s">
+        <v>459</v>
+      </c>
+      <c r="I153" t="s">
+        <v>450</v>
+      </c>
+      <c r="J153" t="s">
         <v>467</v>
-      </c>
-      <c r="F153" t="s">
-        <v>492</v>
-      </c>
-      <c r="H153" t="s">
-        <v>499</v>
-      </c>
-      <c r="I153" t="s">
-        <v>492</v>
-      </c>
-      <c r="J153" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -6301,28 +6217,28 @@
         <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C154" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="D154" t="s">
+        <v>427</v>
+      </c>
+      <c r="E154" t="s">
+        <v>429</v>
+      </c>
+      <c r="F154" t="s">
+        <v>451</v>
+      </c>
+      <c r="H154" t="s">
+        <v>459</v>
+      </c>
+      <c r="I154" t="s">
+        <v>451</v>
+      </c>
+      <c r="J154" t="s">
         <v>465</v>
-      </c>
-      <c r="E154" t="s">
-        <v>467</v>
-      </c>
-      <c r="F154" t="s">
-        <v>492</v>
-      </c>
-      <c r="H154" t="s">
-        <v>499</v>
-      </c>
-      <c r="I154" t="s">
-        <v>492</v>
-      </c>
-      <c r="J154" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6330,28 +6246,28 @@
         <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C155" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="D155" t="s">
+        <v>427</v>
+      </c>
+      <c r="E155" t="s">
+        <v>429</v>
+      </c>
+      <c r="F155" t="s">
+        <v>451</v>
+      </c>
+      <c r="H155" t="s">
+        <v>459</v>
+      </c>
+      <c r="I155" t="s">
+        <v>451</v>
+      </c>
+      <c r="J155" t="s">
         <v>465</v>
-      </c>
-      <c r="E155" t="s">
-        <v>467</v>
-      </c>
-      <c r="F155" t="s">
-        <v>492</v>
-      </c>
-      <c r="H155" t="s">
-        <v>499</v>
-      </c>
-      <c r="I155" t="s">
-        <v>492</v>
-      </c>
-      <c r="J155" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6359,28 +6275,28 @@
         <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C156" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="D156" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E156" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F156" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="H156" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I156" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="J156" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6388,28 +6304,28 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="D157" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E157" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F157" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="H157" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I157" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="J157" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6417,28 +6333,28 @@
         <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="C158" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="D158" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E158" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F158" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="H158" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I158" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="J158" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6446,25 +6362,28 @@
         <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C159" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="D159" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E159" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F159" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="H159" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I159" t="s">
-        <v>476</v>
+        <v>434</v>
+      </c>
+      <c r="J159" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6472,28 +6391,28 @@
         <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C160" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="D160" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E160" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F160" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="H160" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I160" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="J160" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6501,28 +6420,28 @@
         <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C161" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="D161" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E161" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F161" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="H161" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I161" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="J161" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6530,28 +6449,28 @@
         <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C162" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="D162" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E162" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F162" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="H162" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I162" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="J162" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6559,25 +6478,28 @@
         <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C163" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="D163" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E163" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F163" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="H163" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I163" t="s">
-        <v>501</v>
+        <v>461</v>
+      </c>
+      <c r="J163" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6585,28 +6507,28 @@
         <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C164" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="D164" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E164" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F164" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="H164" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I164" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="J164" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6614,28 +6536,28 @@
         <v>174</v>
       </c>
       <c r="B165" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C165" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="D165" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E165" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F165" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="H165" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I165" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="J165" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6643,28 +6565,28 @@
         <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C166" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="D166" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E166" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F166" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="H166" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I166" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="J166" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6672,28 +6594,28 @@
         <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="C167" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="D167" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E167" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F167" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="H167" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I167" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="J167" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6701,28 +6623,28 @@
         <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="D168" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E168" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F168" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="H168" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I168" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="J168" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6730,28 +6652,28 @@
         <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="C169" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="D169" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E169" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F169" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="H169" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I169" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="J169" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6759,28 +6681,28 @@
         <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="C170" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="D170" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E170" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F170" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="H170" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="I170" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="J170" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6788,28 +6710,28 @@
         <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="C171" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D171" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="E171" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F171" t="s">
+        <v>449</v>
+      </c>
+      <c r="H171" t="s">
+        <v>459</v>
+      </c>
+      <c r="I171" t="s">
+        <v>449</v>
+      </c>
+      <c r="J171" t="s">
         <v>472</v>
-      </c>
-      <c r="H171" t="s">
-        <v>499</v>
-      </c>
-      <c r="I171" t="s">
-        <v>472</v>
-      </c>
-      <c r="J171" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6817,28 +6739,25 @@
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C172" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="D172" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E172" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F172" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="H172" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I172" t="s">
-        <v>472</v>
-      </c>
-      <c r="J172" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6846,28 +6765,25 @@
         <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="C173" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="D173" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E173" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F173" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="H173" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I173" t="s">
-        <v>472</v>
-      </c>
-      <c r="J173" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6875,28 +6791,25 @@
         <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C174" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="D174" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E174" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F174" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="H174" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I174" t="s">
-        <v>472</v>
-      </c>
-      <c r="J174" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6904,28 +6817,25 @@
         <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C175" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D175" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E175" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F175" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="H175" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I175" t="s">
-        <v>493</v>
-      </c>
-      <c r="J175" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6933,1257 +6843,733 @@
         <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C176" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D176" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E176" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F176" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="H176" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I176" t="s">
-        <v>476</v>
-      </c>
-      <c r="J176" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C177" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="D177" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E177" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F177" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="H177" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I177" t="s">
-        <v>501</v>
-      </c>
-      <c r="J177" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>187</v>
       </c>
       <c r="B178" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C178" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D178" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E178" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F178" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="H178" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I178" t="s">
-        <v>487</v>
-      </c>
-      <c r="J178" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>188</v>
       </c>
       <c r="B179" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C179" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D179" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E179" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F179" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="H179" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I179" t="s">
-        <v>487</v>
-      </c>
-      <c r="J179" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C180" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D180" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E180" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F180" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="H180" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I180" t="s">
-        <v>487</v>
-      </c>
-      <c r="J180" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="C181" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="D181" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E181" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F181" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="H181" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I181" t="s">
-        <v>489</v>
-      </c>
-      <c r="J181" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C182" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="D182" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E182" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F182" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="H182" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I182" t="s">
-        <v>489</v>
-      </c>
-      <c r="J182" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>192</v>
       </c>
       <c r="B183" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C183" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="D183" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E183" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F183" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="H183" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I183" t="s">
-        <v>489</v>
-      </c>
-      <c r="J183" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="C184" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="D184" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E184" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F184" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="H184" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I184" t="s">
-        <v>489</v>
-      </c>
-      <c r="J184" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C185" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="D185" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E185" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F185" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="H185" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="I185" t="s">
-        <v>489</v>
-      </c>
-      <c r="J185" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C186" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="D186" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E186" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F186" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="H186" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I186" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C187" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="D187" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E187" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F187" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="H187" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I187" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>197</v>
       </c>
       <c r="B188" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C188" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="D188" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E188" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F188" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="H188" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I188" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C189" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D189" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E189" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F189" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H189" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I189" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C190" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D190" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E190" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F190" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="H190" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I190" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C191" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D191" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E191" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F191" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="H191" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I191" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>201</v>
       </c>
       <c r="B192" t="s">
+        <v>403</v>
+      </c>
+      <c r="C192" t="s">
         <v>422</v>
       </c>
-      <c r="C192" t="s">
-        <v>463</v>
-      </c>
       <c r="D192" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E192" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F192" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H192" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I192" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C193" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D193" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E193" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F193" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="H193" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I193" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C194" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D194" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E194" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F194" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="H194" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I194" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C195" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="D195" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E195" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F195" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H195" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I195" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C196" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D196" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E196" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F196" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H196" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I196" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C197" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D197" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E197" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F197" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H197" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I197" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>207</v>
       </c>
       <c r="B198" t="s">
+        <v>409</v>
+      </c>
+      <c r="C198" t="s">
+        <v>423</v>
+      </c>
+      <c r="D198" t="s">
         <v>428</v>
       </c>
-      <c r="C198" t="s">
-        <v>463</v>
-      </c>
-      <c r="D198" t="s">
-        <v>466</v>
-      </c>
       <c r="E198" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F198" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H198" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I198" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="C199" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="D199" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E199" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F199" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H199" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I199" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C200" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D200" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E200" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F200" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H200" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="I200" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C201" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="D201" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E201" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F201" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="H201" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I201" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>452</v>
+      </c>
+      <c r="J201" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C202" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="D202" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E202" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F202" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="H202" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="I202" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>445</v>
+      </c>
+      <c r="J202" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>212</v>
       </c>
       <c r="B203" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C203" t="s">
+        <v>422</v>
+      </c>
+      <c r="D203" t="s">
+        <v>428</v>
+      </c>
+      <c r="E203" t="s">
+        <v>429</v>
+      </c>
+      <c r="F203" t="s">
+        <v>453</v>
+      </c>
+      <c r="H203" t="s">
         <v>460</v>
       </c>
-      <c r="D203" t="s">
-        <v>466</v>
-      </c>
-      <c r="E203" t="s">
-        <v>467</v>
-      </c>
-      <c r="F203" t="s">
-        <v>484</v>
-      </c>
-      <c r="H203" t="s">
-        <v>500</v>
-      </c>
       <c r="I203" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" t="s">
-        <v>213</v>
-      </c>
-      <c r="B204" t="s">
-        <v>434</v>
-      </c>
-      <c r="C204" t="s">
-        <v>460</v>
-      </c>
-      <c r="D204" t="s">
-        <v>466</v>
-      </c>
-      <c r="E204" t="s">
-        <v>467</v>
-      </c>
-      <c r="F204" t="s">
-        <v>477</v>
-      </c>
-      <c r="H204" t="s">
-        <v>500</v>
-      </c>
-      <c r="I204" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" t="s">
-        <v>214</v>
-      </c>
-      <c r="B205" t="s">
-        <v>435</v>
-      </c>
-      <c r="C205" t="s">
-        <v>460</v>
-      </c>
-      <c r="D205" t="s">
-        <v>466</v>
-      </c>
-      <c r="E205" t="s">
-        <v>467</v>
-      </c>
-      <c r="F205" t="s">
-        <v>477</v>
-      </c>
-      <c r="H205" t="s">
-        <v>500</v>
-      </c>
-      <c r="I205" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" t="s">
-        <v>215</v>
-      </c>
-      <c r="B206" t="s">
-        <v>436</v>
-      </c>
-      <c r="C206" t="s">
-        <v>460</v>
-      </c>
-      <c r="D206" t="s">
-        <v>466</v>
-      </c>
-      <c r="E206" t="s">
-        <v>467</v>
-      </c>
-      <c r="F206" t="s">
-        <v>484</v>
-      </c>
-      <c r="H206" t="s">
-        <v>500</v>
-      </c>
-      <c r="I206" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" t="s">
-        <v>216</v>
-      </c>
-      <c r="B207" t="s">
-        <v>437</v>
-      </c>
-      <c r="C207" t="s">
-        <v>460</v>
-      </c>
-      <c r="D207" t="s">
-        <v>466</v>
-      </c>
-      <c r="E207" t="s">
-        <v>467</v>
-      </c>
-      <c r="F207" t="s">
-        <v>495</v>
-      </c>
-      <c r="H207" t="s">
-        <v>500</v>
-      </c>
-      <c r="I207" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" t="s">
-        <v>217</v>
-      </c>
-      <c r="B208" t="s">
-        <v>438</v>
-      </c>
-      <c r="C208" t="s">
-        <v>460</v>
-      </c>
-      <c r="D208" t="s">
-        <v>466</v>
-      </c>
-      <c r="E208" t="s">
-        <v>467</v>
-      </c>
-      <c r="F208" t="s">
-        <v>496</v>
-      </c>
-      <c r="H208" t="s">
-        <v>500</v>
-      </c>
-      <c r="I208" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" t="s">
-        <v>218</v>
-      </c>
-      <c r="B209" t="s">
-        <v>439</v>
-      </c>
-      <c r="C209" t="s">
-        <v>463</v>
-      </c>
-      <c r="D209" t="s">
-        <v>466</v>
-      </c>
-      <c r="E209" t="s">
-        <v>467</v>
-      </c>
-      <c r="F209" t="s">
-        <v>484</v>
-      </c>
-      <c r="H209" t="s">
-        <v>500</v>
-      </c>
-      <c r="I209" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" t="s">
-        <v>219</v>
-      </c>
-      <c r="B210" t="s">
-        <v>440</v>
-      </c>
-      <c r="C210" t="s">
-        <v>464</v>
-      </c>
-      <c r="D210" t="s">
-        <v>466</v>
-      </c>
-      <c r="E210" t="s">
-        <v>467</v>
-      </c>
-      <c r="F210" t="s">
-        <v>484</v>
-      </c>
-      <c r="H210" t="s">
-        <v>500</v>
-      </c>
-      <c r="I210" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" t="s">
-        <v>220</v>
-      </c>
-      <c r="B211" t="s">
-        <v>441</v>
-      </c>
-      <c r="C211" t="s">
-        <v>460</v>
-      </c>
-      <c r="D211" t="s">
-        <v>466</v>
-      </c>
-      <c r="E211" t="s">
-        <v>467</v>
-      </c>
-      <c r="F211" t="s">
-        <v>484</v>
-      </c>
-      <c r="H211" t="s">
-        <v>500</v>
-      </c>
-      <c r="I211" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" t="s">
-        <v>221</v>
-      </c>
-      <c r="B212" t="s">
-        <v>442</v>
-      </c>
-      <c r="C212" t="s">
-        <v>460</v>
-      </c>
-      <c r="D212" t="s">
-        <v>466</v>
-      </c>
-      <c r="E212" t="s">
-        <v>467</v>
-      </c>
-      <c r="F212" t="s">
-        <v>484</v>
-      </c>
-      <c r="H212" t="s">
-        <v>500</v>
-      </c>
-      <c r="I212" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" t="s">
-        <v>222</v>
-      </c>
-      <c r="B213" t="s">
-        <v>443</v>
-      </c>
-      <c r="C213" t="s">
-        <v>460</v>
-      </c>
-      <c r="D213" t="s">
-        <v>466</v>
-      </c>
-      <c r="E213" t="s">
-        <v>467</v>
-      </c>
-      <c r="F213" t="s">
-        <v>484</v>
-      </c>
-      <c r="H213" t="s">
-        <v>500</v>
-      </c>
-      <c r="I213" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" t="s">
-        <v>223</v>
-      </c>
-      <c r="B214" t="s">
-        <v>444</v>
-      </c>
-      <c r="C214" t="s">
-        <v>464</v>
-      </c>
-      <c r="D214" t="s">
-        <v>466</v>
-      </c>
-      <c r="E214" t="s">
-        <v>467</v>
-      </c>
-      <c r="F214" t="s">
-        <v>484</v>
-      </c>
-      <c r="H214" t="s">
-        <v>500</v>
-      </c>
-      <c r="I214" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" t="s">
-        <v>224</v>
-      </c>
-      <c r="B215" t="s">
-        <v>445</v>
-      </c>
-      <c r="C215" t="s">
         <v>461</v>
-      </c>
-      <c r="D215" t="s">
-        <v>466</v>
-      </c>
-      <c r="E215" t="s">
-        <v>467</v>
-      </c>
-      <c r="F215" t="s">
-        <v>497</v>
-      </c>
-      <c r="H215" t="s">
-        <v>500</v>
-      </c>
-      <c r="I215" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" t="s">
-        <v>225</v>
-      </c>
-      <c r="B216" t="s">
-        <v>446</v>
-      </c>
-      <c r="C216" t="s">
-        <v>460</v>
-      </c>
-      <c r="D216" t="s">
-        <v>466</v>
-      </c>
-      <c r="E216" t="s">
-        <v>467</v>
-      </c>
-      <c r="F216" t="s">
-        <v>484</v>
-      </c>
-      <c r="H216" t="s">
-        <v>500</v>
-      </c>
-      <c r="I216" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" t="s">
-        <v>226</v>
-      </c>
-      <c r="B217" t="s">
-        <v>447</v>
-      </c>
-      <c r="C217" t="s">
-        <v>463</v>
-      </c>
-      <c r="D217" t="s">
-        <v>466</v>
-      </c>
-      <c r="E217" t="s">
-        <v>467</v>
-      </c>
-      <c r="F217" t="s">
-        <v>498</v>
-      </c>
-      <c r="H217" t="s">
-        <v>500</v>
-      </c>
-      <c r="I217" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" t="s">
-        <v>227</v>
-      </c>
-      <c r="B218" t="s">
-        <v>448</v>
-      </c>
-      <c r="C218" t="s">
-        <v>464</v>
-      </c>
-      <c r="D218" t="s">
-        <v>466</v>
-      </c>
-      <c r="E218" t="s">
-        <v>467</v>
-      </c>
-      <c r="F218" t="s">
-        <v>484</v>
-      </c>
-      <c r="H218" t="s">
-        <v>500</v>
-      </c>
-      <c r="I218" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
-      <c r="A219" t="s">
-        <v>228</v>
-      </c>
-      <c r="B219" t="s">
-        <v>449</v>
-      </c>
-      <c r="C219" t="s">
-        <v>460</v>
-      </c>
-      <c r="D219" t="s">
-        <v>466</v>
-      </c>
-      <c r="E219" t="s">
-        <v>467</v>
-      </c>
-      <c r="F219" t="s">
-        <v>484</v>
-      </c>
-      <c r="H219" t="s">
-        <v>500</v>
-      </c>
-      <c r="I219" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="A220" t="s">
-        <v>229</v>
-      </c>
-      <c r="B220" t="s">
-        <v>450</v>
-      </c>
-      <c r="C220" t="s">
-        <v>461</v>
-      </c>
-      <c r="D220" t="s">
-        <v>465</v>
-      </c>
-      <c r="E220" t="s">
-        <v>467</v>
-      </c>
-      <c r="F220" t="s">
-        <v>492</v>
-      </c>
-      <c r="H220" t="s">
-        <v>499</v>
-      </c>
-      <c r="I220" t="s">
-        <v>492</v>
-      </c>
-      <c r="J220" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="A221" t="s">
-        <v>230</v>
-      </c>
-      <c r="B221" t="s">
-        <v>451</v>
-      </c>
-      <c r="C221" t="s">
-        <v>454</v>
-      </c>
-      <c r="D221" t="s">
-        <v>465</v>
-      </c>
-      <c r="E221" t="s">
-        <v>467</v>
-      </c>
-      <c r="F221" t="s">
-        <v>485</v>
-      </c>
-      <c r="H221" t="s">
-        <v>499</v>
-      </c>
-      <c r="I221" t="s">
-        <v>485</v>
-      </c>
-      <c r="J221" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="A222" t="s">
-        <v>231</v>
-      </c>
-      <c r="B222" t="s">
-        <v>452</v>
-      </c>
-      <c r="C222" t="s">
-        <v>460</v>
-      </c>
-      <c r="D222" t="s">
-        <v>466</v>
-      </c>
-      <c r="E222" t="s">
-        <v>467</v>
-      </c>
-      <c r="F222" t="s">
-        <v>484</v>
-      </c>
-      <c r="H222" t="s">
-        <v>500</v>
-      </c>
-      <c r="I222" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/Status_of_Not_found.xlsx
+++ b/Status_of_Not_found.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="492">
   <si>
     <t>rxcui</t>
   </si>
@@ -76,6 +76,12 @@
     <t>1145972</t>
   </si>
   <si>
+    <t>1154501</t>
+  </si>
+  <si>
+    <t>1154502</t>
+  </si>
+  <si>
     <t>1155161</t>
   </si>
   <si>
@@ -166,6 +172,12 @@
     <t>1174073</t>
   </si>
   <si>
+    <t>1174088</t>
+  </si>
+  <si>
+    <t>1174089</t>
+  </si>
+  <si>
     <t>1175146</t>
   </si>
   <si>
@@ -205,6 +217,12 @@
     <t>1176518</t>
   </si>
   <si>
+    <t>1176991</t>
+  </si>
+  <si>
+    <t>1176992</t>
+  </si>
+  <si>
     <t>1177027</t>
   </si>
   <si>
@@ -376,6 +394,12 @@
     <t>859019</t>
   </si>
   <si>
+    <t>859027</t>
+  </si>
+  <si>
+    <t>859029</t>
+  </si>
+  <si>
     <t>859097</t>
   </si>
   <si>
@@ -466,6 +490,9 @@
     <t>996462</t>
   </si>
   <si>
+    <t>996481</t>
+  </si>
+  <si>
     <t>996484</t>
   </si>
   <si>
@@ -682,6 +709,12 @@
     <t>codeine phosphate 1.6 MG/ML / pseudoephedrine hydrochloride 6 MG/ML Oral Solution [Codar D]</t>
   </si>
   <si>
+    <t>chlorpheniramine / hydrocodone / phenylephrine Oral Liquid Product</t>
+  </si>
+  <si>
+    <t>chlorpheniramine / hydrocodone / phenylephrine Oral Product</t>
+  </si>
+  <si>
     <t>codeine / pyrilamine Oral Liquid Product</t>
   </si>
   <si>
@@ -772,6 +805,12 @@
     <t>Hydro GP Oral Product</t>
   </si>
   <si>
+    <t>Hydro-PC II Oral Liquid Product</t>
+  </si>
+  <si>
+    <t>Hydro-PC II Oral Product</t>
+  </si>
+  <si>
     <t>Codar AR Oral Liquid Product</t>
   </si>
   <si>
@@ -811,6 +850,12 @@
     <t>Diamode Oral Product</t>
   </si>
   <si>
+    <t>Mytussin AC Oral Liquid Product</t>
+  </si>
+  <si>
+    <t>Mytussin AC Oral Product</t>
+  </si>
+  <si>
     <t>Oxyfast Oral Liquid Product</t>
   </si>
   <si>
@@ -982,6 +1027,12 @@
     <t>guaiacolsulfonate 60 MG/ML / hydrocodone bitartrate 1 MG/ML Oral Solution [Hydron KGS]</t>
   </si>
   <si>
+    <t>chlorpheniramine maleate 0.4 MG/ML / hydrocodone bitartrate 0.7 MG/ML / phenylephrine hydrochloride 1.5 MG/ML Oral Solution</t>
+  </si>
+  <si>
+    <t>chlorpheniramine maleate 0.4 MG/ML / hydrocodone bitartrate 0.7 MG/ML / phenylephrine hydrochloride 1.5 MG/ML Oral Solution [Hydro-PC II]</t>
+  </si>
+  <si>
     <t>guaiacolsulfonate 70 MG/ML / hydrocodone bitartrate 1 MG/ML Oral Solution</t>
   </si>
   <si>
@@ -1072,6 +1123,9 @@
     <t>codeine phosphate 2 MG/ML / guaifenesin 20 MG/ML Oral Solution [Guiatuss AC]</t>
   </si>
   <si>
+    <t>codeine phosphate 2 MG/ML / guaifenesin 20 MG/ML Oral Solution [Mytussin AC]</t>
+  </si>
+  <si>
     <t>codeine phosphate 2 MG/ML / guaifenesin 20 MG/ML Oral Solution [Robafen AC]</t>
   </si>
   <si>
@@ -1409,6 +1463,9 @@
   </si>
   <si>
     <t>032022</t>
+  </si>
+  <si>
+    <t>062022</t>
   </si>
   <si>
     <t>042021</t>
@@ -1790,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,28 +1893,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="H2" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I2" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="J2" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1865,28 +1922,28 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="H3" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I3" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="J3" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1894,28 +1951,28 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E4" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F4" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I4" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="J4" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1923,28 +1980,28 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F5" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H5" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I5" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="J5" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1952,28 +2009,28 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E6" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I6" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="J6" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1981,28 +2038,28 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="J7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2010,28 +2067,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F8" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H8" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I8" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="J8" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2039,28 +2096,28 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F9" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H9" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I9" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="J9" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2068,28 +2125,28 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="H10" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I10" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="J10" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2097,28 +2154,28 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H11" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I11" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J11" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2126,28 +2183,28 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D12" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E12" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F12" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H12" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I12" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J12" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2155,28 +2212,28 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F13" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H13" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I13" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J13" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2184,28 +2241,28 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F14" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H14" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I14" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J14" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2213,28 +2270,28 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E15" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H15" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I15" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J15" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2242,28 +2299,28 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D16" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E16" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F16" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H16" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I16" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J16" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2271,28 +2328,28 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E17" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F17" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H17" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I17" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J17" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2300,28 +2357,28 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F18" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H18" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I18" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J18" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2329,25 +2386,28 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E19" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F19" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H19" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I19" t="s">
-        <v>434</v>
+        <v>452</v>
+      </c>
+      <c r="J19" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2355,25 +2415,28 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E20" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F20" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H20" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I20" t="s">
-        <v>434</v>
+        <v>452</v>
+      </c>
+      <c r="J20" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2381,28 +2444,25 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H21" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I21" t="s">
-        <v>434</v>
-      </c>
-      <c r="J21" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2410,28 +2470,25 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="D22" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E22" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F22" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H22" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I22" t="s">
-        <v>434</v>
-      </c>
-      <c r="J22" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2439,28 +2496,28 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E23" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F23" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H23" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I23" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J23" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2468,28 +2525,28 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F24" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H24" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I24" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J24" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2497,25 +2554,28 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D25" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E25" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F25" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H25" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I25" t="s">
-        <v>434</v>
+        <v>452</v>
+      </c>
+      <c r="J25" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2523,25 +2583,28 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D26" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E26" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H26" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I26" t="s">
-        <v>434</v>
+        <v>452</v>
+      </c>
+      <c r="J26" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2549,28 +2612,25 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E27" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F27" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H27" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I27" t="s">
-        <v>434</v>
-      </c>
-      <c r="J27" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2578,28 +2638,25 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E28" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F28" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H28" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I28" t="s">
-        <v>434</v>
-      </c>
-      <c r="J28" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2607,28 +2664,28 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E29" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F29" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H29" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I29" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J29" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2636,28 +2693,28 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D30" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E30" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F30" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H30" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I30" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J30" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2665,28 +2722,28 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C31" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D31" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E31" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H31" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I31" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J31" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2694,28 +2751,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D32" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E32" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F32" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H32" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I32" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J32" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2723,28 +2780,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D33" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E33" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F33" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H33" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I33" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J33" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2752,28 +2809,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D34" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E34" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H34" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I34" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J34" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2781,28 +2838,28 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E35" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F35" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H35" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I35" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J35" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2810,28 +2867,28 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C36" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D36" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E36" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F36" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H36" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I36" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J36" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2839,28 +2896,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D37" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E37" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F37" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H37" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I37" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J37" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2868,28 +2925,28 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C38" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D38" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E38" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F38" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H38" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I38" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J38" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2897,28 +2954,28 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D39" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E39" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F39" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H39" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I39" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J39" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2926,28 +2983,28 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D40" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E40" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F40" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H40" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I40" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J40" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2955,28 +3012,28 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D41" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E41" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F41" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H41" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I41" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J41" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2984,28 +3041,28 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D42" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F42" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H42" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I42" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J42" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3013,28 +3070,28 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C43" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D43" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E43" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F43" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H43" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I43" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J43" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3042,28 +3099,28 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C44" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D44" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E44" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F44" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H44" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I44" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J44" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3071,28 +3128,28 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C45" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D45" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E45" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F45" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H45" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I45" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J45" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3100,28 +3157,28 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D46" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E46" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F46" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H46" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I46" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J46" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3129,28 +3186,28 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C47" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D47" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F47" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H47" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I47" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J47" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3158,28 +3215,28 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D48" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E48" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F48" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H48" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I48" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J48" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3187,28 +3244,28 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D49" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E49" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H49" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I49" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J49" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3216,28 +3273,28 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D50" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E50" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F50" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H50" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J50" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3245,28 +3302,28 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D51" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E51" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F51" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H51" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I51" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3274,28 +3331,28 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D52" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E52" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F52" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H52" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I52" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J52" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3303,25 +3360,28 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D53" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E53" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F53" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H53" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
+        <v>452</v>
+      </c>
+      <c r="J53" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3329,28 +3389,28 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C54" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E54" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H54" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I54" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J54" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3358,28 +3418,28 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C55" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D55" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E55" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F55" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H55" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I55" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J55" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3387,28 +3447,28 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C56" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E56" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F56" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H56" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J56" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3416,28 +3476,25 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C57" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D57" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E57" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F57" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H57" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I57" t="s">
-        <v>434</v>
-      </c>
-      <c r="J57" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3445,28 +3502,28 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C58" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D58" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E58" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H58" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I58" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J58" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3474,28 +3531,28 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D59" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E59" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F59" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H59" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I59" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J59" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3503,28 +3560,28 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C60" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D60" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E60" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F60" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H60" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I60" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J60" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3532,28 +3589,28 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D61" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E61" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H61" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I61" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J61" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3561,28 +3618,28 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D62" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E62" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H62" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I62" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J62" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3590,28 +3647,28 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C63" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D63" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E63" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H63" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I63" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J63" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3619,28 +3676,28 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C64" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D64" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E64" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F64" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H64" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I64" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J64" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3648,28 +3705,28 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C65" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D65" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E65" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H65" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I65" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J65" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3677,28 +3734,28 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D66" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E66" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F66" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H66" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I66" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J66" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3706,28 +3763,28 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D67" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E67" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F67" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H67" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I67" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J67" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3735,28 +3792,28 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E68" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F68" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H68" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I68" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J68" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3764,28 +3821,28 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D69" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E69" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F69" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H69" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I69" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J69" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3793,28 +3850,28 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E70" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H70" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I70" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J70" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3822,28 +3879,28 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D71" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E71" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F71" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H71" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I71" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J71" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3851,28 +3908,28 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D72" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E72" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F72" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H72" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I72" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J72" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3880,28 +3937,28 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D73" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E73" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F73" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H73" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I73" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J73" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3909,28 +3966,28 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D74" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E74" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F74" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H74" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I74" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J74" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3938,28 +3995,28 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D75" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E75" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F75" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H75" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I75" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J75" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3967,28 +4024,28 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D76" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E76" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F76" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H76" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I76" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="J76" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3996,28 +4053,28 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C77" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D77" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E77" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F77" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H77" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I77" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="J77" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4025,25 +4082,28 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D78" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E78" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F78" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="H78" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I78" t="s">
-        <v>436</v>
+        <v>452</v>
+      </c>
+      <c r="J78" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4051,25 +4111,28 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D79" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E79" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F79" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="H79" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I79" t="s">
-        <v>436</v>
+        <v>452</v>
+      </c>
+      <c r="J79" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4077,28 +4140,28 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D80" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E80" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F80" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="H80" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I80" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="J80" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4106,28 +4169,28 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C81" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D81" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E81" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F81" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="H81" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I81" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="J81" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4135,28 +4198,28 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C82" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D82" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E82" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F82" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="H82" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I82" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="J82" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4164,28 +4227,28 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C83" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D83" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E83" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F83" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="H83" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I83" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="J83" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4193,28 +4256,25 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D84" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E84" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F84" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="H84" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I84" t="s">
-        <v>439</v>
-      </c>
-      <c r="J84" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4222,28 +4282,25 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C85" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D85" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E85" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F85" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="H85" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I85" t="s">
-        <v>440</v>
-      </c>
-      <c r="J85" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4251,28 +4308,28 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C86" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D86" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E86" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H86" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I86" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="J86" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4280,28 +4337,28 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C87" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D87" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E87" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F87" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H87" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I87" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="J87" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4309,28 +4366,28 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C88" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D88" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E88" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H88" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I88" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="J88" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4338,28 +4395,28 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C89" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D89" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E89" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F89" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="H89" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I89" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="J89" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4367,28 +4424,28 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C90" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D90" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E90" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="H90" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I90" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="J90" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4396,28 +4453,28 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D91" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E91" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F91" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="H91" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I91" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="J91" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4425,28 +4482,28 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C92" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="D92" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E92" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F92" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H92" t="s">
+        <v>477</v>
+      </c>
+      <c r="I92" t="s">
         <v>459</v>
       </c>
-      <c r="I92" t="s">
-        <v>443</v>
-      </c>
       <c r="J92" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4454,28 +4511,28 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="D93" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E93" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F93" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H93" t="s">
+        <v>477</v>
+      </c>
+      <c r="I93" t="s">
         <v>459</v>
       </c>
-      <c r="I93" t="s">
-        <v>443</v>
-      </c>
       <c r="J93" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4483,28 +4540,28 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C94" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D94" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E94" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F94" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="H94" t="s">
+        <v>477</v>
+      </c>
+      <c r="I94" t="s">
         <v>459</v>
       </c>
-      <c r="I94" t="s">
-        <v>444</v>
-      </c>
       <c r="J94" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4512,28 +4569,28 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D95" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E95" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F95" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="H95" t="s">
+        <v>477</v>
+      </c>
+      <c r="I95" t="s">
         <v>459</v>
       </c>
-      <c r="I95" t="s">
-        <v>444</v>
-      </c>
       <c r="J95" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4541,28 +4598,28 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D96" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E96" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F96" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="H96" t="s">
+        <v>477</v>
+      </c>
+      <c r="I96" t="s">
         <v>459</v>
       </c>
-      <c r="I96" t="s">
-        <v>444</v>
-      </c>
       <c r="J96" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4570,28 +4627,28 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C97" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D97" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E97" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F97" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="H97" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I97" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="J97" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4599,28 +4656,28 @@
         <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C98" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D98" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E98" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F98" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="H98" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I98" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="J98" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4628,28 +4685,28 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="D99" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E99" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F99" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H99" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I99" t="s">
         <v>461</v>
       </c>
       <c r="J99" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4657,28 +4714,28 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="D100" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E100" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F100" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="H100" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I100" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J100" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4686,28 +4743,28 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C101" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D101" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E101" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F101" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="H101" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I101" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="J101" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4715,28 +4772,28 @@
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C102" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E102" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F102" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="H102" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I102" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="J102" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4744,28 +4801,28 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C103" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D103" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E103" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F103" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="H103" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I103" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="J103" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4773,28 +4830,28 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C104" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D104" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E104" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F104" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="H104" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I104" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="J104" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4802,28 +4859,28 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C105" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="D105" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E105" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F105" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="H105" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I105" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="J105" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4831,28 +4888,28 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C106" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D106" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F106" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="H106" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I106" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="J106" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4860,28 +4917,28 @@
         <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C107" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D107" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F107" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H107" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I107" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="J107" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4889,28 +4946,28 @@
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C108" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E108" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F108" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H108" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I108" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="J108" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4918,28 +4975,28 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C109" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D109" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E109" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F109" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H109" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I109" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="J109" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4947,28 +5004,28 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D110" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E110" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F110" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H110" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I110" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J110" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4976,28 +5033,28 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C111" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D111" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E111" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F111" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H111" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I111" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J111" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5005,28 +5062,28 @@
         <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C112" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D112" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E112" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F112" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H112" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I112" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J112" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5034,28 +5091,28 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D113" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E113" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F113" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H113" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I113" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J113" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5063,28 +5120,28 @@
         <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D114" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E114" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F114" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H114" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I114" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J114" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5092,28 +5149,28 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C115" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D115" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E115" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F115" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H115" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I115" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J115" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5121,28 +5178,28 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C116" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D116" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E116" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F116" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H116" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I116" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J116" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5150,28 +5207,28 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C117" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D117" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E117" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F117" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H117" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I117" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J117" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5179,28 +5236,28 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C118" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D118" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E118" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H118" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I118" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J118" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5208,28 +5265,28 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C119" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D119" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E119" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F119" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H119" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I119" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J119" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5237,28 +5294,28 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C120" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D120" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E120" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F120" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H120" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I120" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J120" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5266,28 +5323,28 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D121" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E121" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H121" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I121" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J121" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5295,28 +5352,28 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C122" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D122" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E122" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F122" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H122" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I122" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J122" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5324,28 +5381,28 @@
         <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D123" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E123" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F123" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H123" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I123" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J123" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5353,28 +5410,28 @@
         <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C124" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D124" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E124" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H124" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I124" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J124" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5382,28 +5439,28 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C125" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D125" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E125" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H125" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I125" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J125" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5411,28 +5468,28 @@
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D126" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E126" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F126" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H126" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I126" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J126" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5440,28 +5497,28 @@
         <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C127" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D127" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E127" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F127" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H127" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I127" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="J127" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5469,28 +5526,28 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D128" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E128" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F128" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="H128" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I128" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="J128" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5498,28 +5555,28 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D129" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E129" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F129" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="H129" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I129" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="J129" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5527,28 +5584,28 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C130" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D130" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E130" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F130" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H130" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I130" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="J130" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5556,28 +5613,28 @@
         <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D131" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E131" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F131" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H131" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I131" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="J131" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5585,28 +5642,28 @@
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C132" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D132" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E132" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F132" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H132" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I132" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="J132" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5614,28 +5671,28 @@
         <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D133" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E133" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F133" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H133" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I133" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="J133" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5643,28 +5700,28 @@
         <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C134" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D134" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E134" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F134" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H134" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I134" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="J134" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5672,28 +5729,28 @@
         <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C135" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D135" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E135" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F135" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H135" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I135" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="J135" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5701,28 +5758,28 @@
         <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C136" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D136" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E136" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F136" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="H136" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I136" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="J136" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5730,28 +5787,28 @@
         <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C137" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D137" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E137" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="H137" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I137" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="J137" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5759,28 +5816,28 @@
         <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C138" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D138" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E138" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F138" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H138" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I138" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="J138" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5788,28 +5845,28 @@
         <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D139" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E139" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F139" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H139" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I139" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="J139" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5817,28 +5874,28 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C140" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D140" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E140" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F140" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H140" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I140" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="J140" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5846,28 +5903,28 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C141" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D141" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E141" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F141" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H141" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I141" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="J141" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5875,28 +5932,28 @@
         <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C142" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D142" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E142" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F142" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="H142" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I142" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="J142" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5904,28 +5961,28 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C143" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D143" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E143" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F143" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="H143" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I143" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="J143" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5933,28 +5990,28 @@
         <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C144" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D144" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E144" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F144" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="H144" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I144" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="J144" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5962,25 +6019,28 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C145" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="D145" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E145" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F145" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="H145" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I145" t="s">
-        <v>437</v>
+        <v>470</v>
+      </c>
+      <c r="J145" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5988,28 +6048,28 @@
         <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D146" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E146" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F146" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="H146" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I146" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="J146" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6017,28 +6077,28 @@
         <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C147" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D147" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E147" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F147" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="H147" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I147" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="J147" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -6046,28 +6106,28 @@
         <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C148" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D148" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E148" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F148" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="H148" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I148" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="J148" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -6075,25 +6135,28 @@
         <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C149" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D149" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E149" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F149" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="H149" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I149" t="s">
-        <v>461</v>
+        <v>470</v>
+      </c>
+      <c r="J149" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -6101,28 +6164,28 @@
         <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C150" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D150" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E150" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F150" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="H150" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I150" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="J150" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -6130,28 +6193,28 @@
         <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C151" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D151" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E151" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F151" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H151" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I151" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J151" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -6159,28 +6222,28 @@
         <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C152" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="D152" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E152" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F152" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H152" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I152" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J152" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -6188,28 +6251,28 @@
         <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C153" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D153" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F153" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H153" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I153" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="J153" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -6217,28 +6280,25 @@
         <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C154" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="D154" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F154" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H154" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I154" t="s">
-        <v>451</v>
-      </c>
-      <c r="J154" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6246,28 +6306,28 @@
         <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D155" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E155" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F155" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H155" t="s">
+        <v>477</v>
+      </c>
+      <c r="I155" t="s">
         <v>459</v>
       </c>
-      <c r="I155" t="s">
-        <v>451</v>
-      </c>
       <c r="J155" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6275,28 +6335,28 @@
         <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C156" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="D156" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E156" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F156" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="H156" t="s">
+        <v>477</v>
+      </c>
+      <c r="I156" t="s">
         <v>459</v>
       </c>
-      <c r="I156" t="s">
-        <v>433</v>
-      </c>
       <c r="J156" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6304,28 +6364,28 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C157" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="D157" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E157" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F157" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="H157" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I157" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="J157" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6333,28 +6393,25 @@
         <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C158" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="D158" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E158" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F158" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="H158" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I158" t="s">
-        <v>434</v>
-      </c>
-      <c r="J158" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6362,28 +6419,28 @@
         <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="D159" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E159" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F159" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="H159" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I159" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="J159" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6391,28 +6448,28 @@
         <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C160" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="D160" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E160" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F160" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="H160" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I160" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="J160" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6420,28 +6477,28 @@
         <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D161" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E161" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F161" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="H161" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I161" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="J161" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6449,28 +6506,28 @@
         <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C162" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D162" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E162" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F162" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="H162" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I162" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="J162" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6478,28 +6535,28 @@
         <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C163" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D163" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E163" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F163" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="H163" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I163" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="J163" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6507,28 +6564,28 @@
         <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C164" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D164" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E164" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F164" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="H164" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I164" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="J164" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6536,28 +6593,28 @@
         <v>174</v>
       </c>
       <c r="B165" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C165" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D165" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E165" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F165" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H165" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I165" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="J165" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6565,28 +6622,28 @@
         <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C166" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D166" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E166" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F166" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H166" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I166" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J166" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6594,28 +6651,28 @@
         <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C167" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D167" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E167" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F167" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H167" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I167" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J167" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6623,28 +6680,28 @@
         <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C168" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D168" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E168" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F168" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H168" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I168" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J168" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6652,28 +6709,28 @@
         <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C169" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D169" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E169" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F169" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H169" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I169" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J169" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6681,28 +6738,28 @@
         <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C170" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D170" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E170" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F170" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="H170" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I170" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="J170" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6710,28 +6767,28 @@
         <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C171" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D171" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E171" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F171" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H171" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="I171" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="J171" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6739,25 +6796,28 @@
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C172" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D172" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E172" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F172" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H172" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I172" t="s">
-        <v>455</v>
+        <v>479</v>
+      </c>
+      <c r="J172" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6765,25 +6825,28 @@
         <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D173" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E173" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F173" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H173" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I173" t="s">
-        <v>455</v>
+        <v>465</v>
+      </c>
+      <c r="J173" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6791,25 +6854,28 @@
         <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C174" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D174" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E174" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F174" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H174" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I174" t="s">
-        <v>455</v>
+        <v>465</v>
+      </c>
+      <c r="J174" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6817,25 +6883,28 @@
         <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C175" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D175" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E175" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F175" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H175" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I175" t="s">
-        <v>455</v>
+        <v>465</v>
+      </c>
+      <c r="J175" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6843,733 +6912,982 @@
         <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C176" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D176" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E176" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F176" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H176" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I176" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>467</v>
+      </c>
+      <c r="J176" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C177" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D177" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E177" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F177" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H177" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I177" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>467</v>
+      </c>
+      <c r="J177" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>187</v>
       </c>
       <c r="B178" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C178" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D178" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E178" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F178" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H178" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I178" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>467</v>
+      </c>
+      <c r="J178" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>188</v>
       </c>
       <c r="B179" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C179" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D179" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E179" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F179" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H179" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I179" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>467</v>
+      </c>
+      <c r="J179" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C180" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D180" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E180" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F180" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H180" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I180" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>467</v>
+      </c>
+      <c r="J180" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C181" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D181" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E181" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F181" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H181" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I181" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C182" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D182" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E182" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F182" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H182" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I182" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>192</v>
       </c>
       <c r="B183" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C183" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D183" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E183" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F183" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H183" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I183" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C184" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D184" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E184" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F184" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H184" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I184" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C185" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D185" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E185" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F185" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H185" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I185" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C186" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D186" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E186" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F186" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H186" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I186" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C187" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D187" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E187" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F187" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H187" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I187" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>197</v>
       </c>
       <c r="B188" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C188" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D188" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E188" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F188" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H188" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I188" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C189" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D189" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E189" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F189" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H189" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I189" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C190" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D190" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E190" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F190" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="H190" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I190" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C191" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D191" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E191" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F191" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="H191" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I191" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C192" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D192" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E192" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F192" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H192" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I192" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C193" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D193" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E193" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F193" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="H193" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I193" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C194" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D194" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E194" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F194" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H194" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I194" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C195" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="D195" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E195" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F195" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H195" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I195" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C196" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D196" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E196" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F196" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H196" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I196" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C197" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D197" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E197" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F197" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H197" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I197" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C198" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D198" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E198" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F198" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="H198" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I198" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C199" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="D199" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E199" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F199" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H199" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I199" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C200" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D200" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E200" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F200" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H200" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I200" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C201" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D201" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E201" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F201" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="H201" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I201" t="s">
-        <v>452</v>
-      </c>
-      <c r="J201" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C202" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D202" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E202" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F202" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="H202" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I202" t="s">
-        <v>445</v>
-      </c>
-      <c r="J202" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>212</v>
       </c>
       <c r="B203" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C203" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D203" t="s">
+        <v>446</v>
+      </c>
+      <c r="E203" t="s">
+        <v>447</v>
+      </c>
+      <c r="F203" t="s">
+        <v>475</v>
+      </c>
+      <c r="H203" t="s">
+        <v>478</v>
+      </c>
+      <c r="I203" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>213</v>
+      </c>
+      <c r="B204" t="s">
+        <v>424</v>
+      </c>
+      <c r="C204" t="s">
+        <v>444</v>
+      </c>
+      <c r="D204" t="s">
+        <v>446</v>
+      </c>
+      <c r="E204" t="s">
+        <v>447</v>
+      </c>
+      <c r="F204" t="s">
+        <v>471</v>
+      </c>
+      <c r="H204" t="s">
+        <v>478</v>
+      </c>
+      <c r="I204" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>214</v>
+      </c>
+      <c r="B205" t="s">
+        <v>425</v>
+      </c>
+      <c r="C205" t="s">
+        <v>440</v>
+      </c>
+      <c r="D205" t="s">
+        <v>446</v>
+      </c>
+      <c r="E205" t="s">
+        <v>447</v>
+      </c>
+      <c r="F205" t="s">
+        <v>471</v>
+      </c>
+      <c r="H205" t="s">
+        <v>478</v>
+      </c>
+      <c r="I205" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>215</v>
+      </c>
+      <c r="B206" t="s">
+        <v>426</v>
+      </c>
+      <c r="C206" t="s">
+        <v>440</v>
+      </c>
+      <c r="D206" t="s">
+        <v>446</v>
+      </c>
+      <c r="E206" t="s">
+        <v>447</v>
+      </c>
+      <c r="F206" t="s">
+        <v>471</v>
+      </c>
+      <c r="H206" t="s">
+        <v>478</v>
+      </c>
+      <c r="I206" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>216</v>
+      </c>
+      <c r="B207" t="s">
+        <v>427</v>
+      </c>
+      <c r="C207" t="s">
+        <v>441</v>
+      </c>
+      <c r="D207" t="s">
+        <v>446</v>
+      </c>
+      <c r="E207" t="s">
+        <v>447</v>
+      </c>
+      <c r="F207" t="s">
+        <v>476</v>
+      </c>
+      <c r="H207" t="s">
+        <v>478</v>
+      </c>
+      <c r="I207" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>217</v>
+      </c>
+      <c r="B208" t="s">
         <v>428</v>
       </c>
-      <c r="E203" t="s">
+      <c r="C208" t="s">
+        <v>444</v>
+      </c>
+      <c r="D208" t="s">
+        <v>446</v>
+      </c>
+      <c r="E208" t="s">
+        <v>447</v>
+      </c>
+      <c r="F208" t="s">
+        <v>471</v>
+      </c>
+      <c r="H208" t="s">
+        <v>478</v>
+      </c>
+      <c r="I208" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
+        <v>218</v>
+      </c>
+      <c r="B209" t="s">
         <v>429</v>
       </c>
-      <c r="F203" t="s">
-        <v>453</v>
-      </c>
-      <c r="H203" t="s">
-        <v>460</v>
-      </c>
-      <c r="I203" t="s">
-        <v>461</v>
+      <c r="C209" t="s">
+        <v>440</v>
+      </c>
+      <c r="D209" t="s">
+        <v>446</v>
+      </c>
+      <c r="E209" t="s">
+        <v>447</v>
+      </c>
+      <c r="F209" t="s">
+        <v>471</v>
+      </c>
+      <c r="H209" t="s">
+        <v>478</v>
+      </c>
+      <c r="I209" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
+        <v>219</v>
+      </c>
+      <c r="B210" t="s">
+        <v>430</v>
+      </c>
+      <c r="C210" t="s">
+        <v>441</v>
+      </c>
+      <c r="D210" t="s">
+        <v>445</v>
+      </c>
+      <c r="E210" t="s">
+        <v>447</v>
+      </c>
+      <c r="F210" t="s">
+        <v>470</v>
+      </c>
+      <c r="H210" t="s">
+        <v>477</v>
+      </c>
+      <c r="I210" t="s">
+        <v>470</v>
+      </c>
+      <c r="J210" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" t="s">
+        <v>431</v>
+      </c>
+      <c r="C211" t="s">
+        <v>434</v>
+      </c>
+      <c r="D211" t="s">
+        <v>445</v>
+      </c>
+      <c r="E211" t="s">
+        <v>447</v>
+      </c>
+      <c r="F211" t="s">
+        <v>463</v>
+      </c>
+      <c r="H211" t="s">
+        <v>477</v>
+      </c>
+      <c r="I211" t="s">
+        <v>463</v>
+      </c>
+      <c r="J211" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" t="s">
+        <v>221</v>
+      </c>
+      <c r="B212" t="s">
+        <v>432</v>
+      </c>
+      <c r="C212" t="s">
+        <v>440</v>
+      </c>
+      <c r="D212" t="s">
+        <v>446</v>
+      </c>
+      <c r="E212" t="s">
+        <v>447</v>
+      </c>
+      <c r="F212" t="s">
+        <v>471</v>
+      </c>
+      <c r="H212" t="s">
+        <v>478</v>
+      </c>
+      <c r="I212" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
